--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -34,11 +34,11 @@
     <t>Test(测试对象): 2
 Role(角色): 3
 Enemy(敌人): 4
-Weapon(武器): 3
-Bullet(子弹): 3
-Shell(弹壳): 3
-Effect(特效): 3
-Other(其它类型): 3</t>
+Weapon(武器): 5
+Bullet(子弹): 6
+Shell(弹壳): 7
+Effect(特效): 8
+Other(其它类型): 9</t>
   </si>
   <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
@@ -54,6 +54,54 @@
   </si>
   <si>
     <t>res://prefab/role/Player.tscn</t>
+  </si>
+  <si>
+    <t>weapon0001</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0001.tscn</t>
+  </si>
+  <si>
+    <t>bullet0001</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/bullet/Bullet0001.tscn</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/bullet/Bullet0002.tscn</t>
+  </si>
+  <si>
+    <t>shell0001</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/shell/Shell0001.tscn</t>
+  </si>
+  <si>
+    <t>other_door_e</t>
+  </si>
+  <si>
+    <t>res://prefab/map/RoomDoor_E.tscn</t>
+  </si>
+  <si>
+    <t>other_door_w</t>
+  </si>
+  <si>
+    <t>res://prefab/map/RoomDoor_W.tscn</t>
+  </si>
+  <si>
+    <t>other_door_s</t>
+  </si>
+  <si>
+    <t>res://prefab/map/RoomDoor_S.tscn</t>
+  </si>
+  <si>
+    <t>other_door_n</t>
+  </si>
+  <si>
+    <t>res://prefab/map/RoomDoor_N.tscn</t>
   </si>
 </sst>
 </file>
@@ -669,9 +717,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1024,72 +1078,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="97.2592592592593" customWidth="1"/>
+    <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6018518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.2592592592593" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="30.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="3:6">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:6">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Prefab</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
   <si>
     <t>物体唯一id
@@ -44,6 +47,9 @@
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
+    <t>物体备注</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -53,7 +59,10 @@
     <t>role0001</t>
   </si>
   <si>
-    <t>res://prefab/role/Player.tscn</t>
+    <t>res://prefab/role/Role0001.tscn</t>
+  </si>
+  <si>
+    <t>玩家</t>
   </si>
   <si>
     <t>weapon0001</t>
@@ -65,19 +74,16 @@
     <t>bullet0001</t>
   </si>
   <si>
-    <t>res://prefab/weapon/bullet/Bullet0001.tscn</t>
+    <t>res://prefab/bullet/Bullet0001.tscn</t>
   </si>
   <si>
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://prefab/weapon/bullet/Bullet0002.tscn</t>
-  </si>
-  <si>
     <t>shell0001</t>
   </si>
   <si>
-    <t>res://prefab/weapon/shell/Shell0001.tscn</t>
+    <t>res://prefab/shell/Shell0001.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -86,22 +92,34 @@
     <t>res://prefab/map/RoomDoor_E.tscn</t>
   </si>
   <si>
+    <t>地牢房间的门(东侧)</t>
+  </si>
+  <si>
     <t>other_door_w</t>
   </si>
   <si>
     <t>res://prefab/map/RoomDoor_W.tscn</t>
   </si>
   <si>
+    <t>地牢房间的门(西侧)</t>
+  </si>
+  <si>
     <t>other_door_s</t>
   </si>
   <si>
     <t>res://prefab/map/RoomDoor_S.tscn</t>
   </si>
   <si>
+    <t>地牢房间的门(南侧)</t>
+  </si>
+  <si>
     <t>other_door_n</t>
   </si>
   <si>
     <t>res://prefab/map/RoomDoor_N.tscn</t>
+  </si>
+  <si>
+    <t>地牢房间的门(北侧)</t>
   </si>
 </sst>
 </file>
@@ -725,10 +743,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,7 +1099,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1094,7 +1112,7 @@
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:3">
+    <row r="1" ht="25" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,140 +1122,163 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="138" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="138" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="28" customHeight="1" spans="1:3">
+    <row r="3" ht="28" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="3:6">
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" ht="28" customHeight="1" spans="3:6">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -65,12 +65,39 @@
     <t>玩家</t>
   </si>
   <si>
+    <t>enemy0001</t>
+  </si>
+  <si>
+    <t>res://prefab/role/Enemy0001.tscn</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
     <t>weapon0001</t>
   </si>
   <si>
     <t>res://prefab/weapon/Weapon0001.tscn</t>
   </si>
   <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0002.tscn</t>
+  </si>
+  <si>
+    <t>weapon0003</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0003.tscn</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0004.tscn</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -80,10 +107,22 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>res://prefab/bullet/Bullet0002.tscn</t>
+  </si>
+  <si>
     <t>shell0001</t>
   </si>
   <si>
     <t>res://prefab/shell/Shell0001.tscn</t>
+  </si>
+  <si>
+    <t>effect0001</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/activityObject/Effect0001.tscn</t>
+  </si>
+  <si>
+    <t>敌人死亡碎片</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1096,10 +1135,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1179,106 +1220,180 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="1:6">
+    <row r="7" ht="28" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="8" ht="28" customHeight="1" spans="3:6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" ht="39" customHeight="1"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>res://prefab/weapon/Weapon0004.tscn</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0005.tscn</t>
   </si>
   <si>
     <t>bullet0001</t>
@@ -1135,12 +1141,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1292,18 +1298,20 @@
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="39" customHeight="1"/>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="13" ht="24" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>26</v>
@@ -1315,85 +1323,96 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D21" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>res://prefab/weapon/Weapon0005.tscn</t>
+  </si>
+  <si>
+    <t>weapon0006</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0006.tscn</t>
   </si>
   <si>
     <t>bullet0001</t>
@@ -1141,12 +1147,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1311,18 +1317,20 @@
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="39" customHeight="1"/>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="14" ht="24" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" ht="39" customHeight="1"/>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>28</v>
@@ -1334,85 +1342,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D22" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>res://prefab/shell/Shell0001.tscn</t>
+  </si>
+  <si>
+    <t>shell0002</t>
+  </si>
+  <si>
+    <t>res://prefab/shell/Shell0002.tscn</t>
+  </si>
+  <si>
+    <t>shell0003</t>
+  </si>
+  <si>
+    <t>res://prefab/shell/Shell0003.tscn</t>
   </si>
   <si>
     <t>effect0001</t>
@@ -1147,12 +1159,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1353,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1364,74 +1376,96 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B28" s="1">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Prefab</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
   </si>
   <si>
     <t>Remark</t>
@@ -41,12 +47,19 @@
 Bullet(子弹): 6
 Shell(弹壳): 7
 Effect(特效): 8
-Other(其它类型): 9</t>
+Prop(道具): 9
+Other(其它类型): 99</t>
   </si>
   <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
+    <t>物体名称</t>
+  </si>
+  <si>
+    <t>物体描述</t>
+  </si>
+  <si>
     <t>物体备注</t>
   </si>
   <si>
@@ -147,6 +160,21 @@
   </si>
   <si>
     <t>敌人死亡碎片</t>
+  </si>
+  <si>
+    <t>prop0001</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Prop0001.tscn</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>增加移动速度</t>
+  </si>
+  <si>
+    <t>增加移速的buff</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1159,25 +1187,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6018518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.2592592592593" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="30.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="3" max="3" width="78.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4">
+    <row r="1" ht="25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,285 +1217,349 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="3:6">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="3:8">
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:6">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:6">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:8">
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:6">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:8">
       <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:6">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:6">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:6">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:6">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:6">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:6">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" ht="39" customHeight="1"/>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F30" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1">
+        <v>99</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1">
+        <v>99</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -24,16 +24,13 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t>Prefab</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>ItemDescription</t>
-  </si>
-  <si>
-    <t>Remark</t>
   </si>
   <si>
     <t>物体唯一id
@@ -51,18 +48,15 @@
 Other(其它类型): 99</t>
   </si>
   <si>
+    <t>物体名称</t>
+  </si>
+  <si>
+    <t>物体备注</t>
+  </si>
+  <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
-    <t>物体名称</t>
-  </si>
-  <si>
-    <t>物体描述</t>
-  </si>
-  <si>
-    <t>物体备注</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -72,54 +66,72 @@
     <t>role0001</t>
   </si>
   <si>
+    <t>玩家</t>
+  </si>
+  <si>
     <t>res://prefab/role/Role0001.tscn</t>
   </si>
   <si>
-    <t>玩家</t>
-  </si>
-  <si>
     <t>enemy0001</t>
   </si>
   <si>
+    <t>敌人</t>
+  </si>
+  <si>
     <t>res://prefab/role/Enemy0001.tscn</t>
   </si>
   <si>
-    <t>敌人</t>
-  </si>
-  <si>
     <t>weapon0001</t>
   </si>
   <si>
+    <t>步枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0001.tscn</t>
   </si>
   <si>
     <t>weapon0002</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0002.tscn</t>
   </si>
   <si>
     <t>weapon0003</t>
   </si>
   <si>
+    <t>手枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0003.tscn</t>
   </si>
   <si>
     <t>weapon0004</t>
   </si>
   <si>
+    <t>刀</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0004.tscn</t>
   </si>
   <si>
     <t>weapon0005</t>
   </si>
   <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0005.tscn</t>
   </si>
   <si>
     <t>weapon0006</t>
   </si>
   <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
     <t>res://prefab/weapon/Weapon0006.tscn</t>
   </si>
   <si>
@@ -156,61 +168,58 @@
     <t>effect0001</t>
   </si>
   <si>
+    <t>敌人死亡碎片</t>
+  </si>
+  <si>
     <t>res://prefab/effect/activityObject/Effect0001.tscn</t>
   </si>
   <si>
-    <t>敌人死亡碎片</t>
-  </si>
-  <si>
     <t>prop0001</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>增加移速的buff</t>
+  </si>
+  <si>
     <t>res://prefab/prop/buff/Prop0001.tscn</t>
   </si>
   <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>增加移动速度</t>
-  </si>
-  <si>
-    <t>增加移速的buff</t>
-  </si>
-  <si>
     <t>other_door_e</t>
   </si>
   <si>
+    <t>地牢房间的门(东侧)</t>
+  </si>
+  <si>
     <t>res://prefab/map/RoomDoor_E.tscn</t>
   </si>
   <si>
-    <t>地牢房间的门(东侧)</t>
-  </si>
-  <si>
     <t>other_door_w</t>
   </si>
   <si>
+    <t>地牢房间的门(西侧)</t>
+  </si>
+  <si>
     <t>res://prefab/map/RoomDoor_W.tscn</t>
   </si>
   <si>
-    <t>地牢房间的门(西侧)</t>
-  </si>
-  <si>
     <t>other_door_s</t>
   </si>
   <si>
+    <t>地牢房间的门(南侧)</t>
+  </si>
+  <si>
     <t>res://prefab/map/RoomDoor_S.tscn</t>
   </si>
   <si>
-    <t>地牢房间的门(南侧)</t>
-  </si>
-  <si>
     <t>other_door_n</t>
   </si>
   <si>
+    <t>地牢房间的门(北侧)</t>
+  </si>
+  <si>
     <t>res://prefab/map/RoomDoor_N.tscn</t>
-  </si>
-  <si>
-    <t>地牢房间的门(北侧)</t>
   </si>
 </sst>
 </file>
@@ -1187,27 +1196,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6018518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="30.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="3" max="3" width="31.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="78.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:6">
+    <row r="1" ht="25" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,142 +1225,130 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="3:7">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="3:8">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:8">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:8">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:8">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,204 +1358,203 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:8">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" ht="39" customHeight="1"/>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>99</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>99</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1">
         <v>99</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -184,6 +184,42 @@
   </si>
   <si>
     <t>res://prefab/prop/buff/Prop0001.tscn</t>
+  </si>
+  <si>
+    <t>prop0002</t>
+  </si>
+  <si>
+    <t>心之容器</t>
+  </si>
+  <si>
+    <t>增加血量上限</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Prop0002.tscn</t>
+  </si>
+  <si>
+    <t>prop0003</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>增加护盾上限</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Prop0003.tscn</t>
+  </si>
+  <si>
+    <t>prop0004</t>
+  </si>
+  <si>
+    <t>护盾快速恢复</t>
+  </si>
+  <si>
+    <t>提高护盾恢复速度</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Prop0004.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1196,12 +1232,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1501,60 +1537,111 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+    <row r="27" customFormat="1" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="D27" t="s">
         <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1">
         <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1">
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -183,7 +183,7 @@
     <t>增加移速的buff</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Prop0001.tscn</t>
+    <t>res://prefab/prop/buff/Buff0001.tscn</t>
   </si>
   <si>
     <t>prop0002</t>
@@ -195,7 +195,7 @@
     <t>增加血量上限</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Prop0002.tscn</t>
+    <t>res://prefab/prop/buff/Buff0002.tscn</t>
   </si>
   <si>
     <t>prop0003</t>
@@ -207,7 +207,7 @@
     <t>增加护盾上限</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Prop0003.tscn</t>
+    <t>res://prefab/prop/buff/Buff0003.tscn</t>
   </si>
   <si>
     <t>prop0004</t>
@@ -219,7 +219,7 @@
     <t>提高护盾恢复速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Prop0004.tscn</t>
+    <t>res://prefab/prop/buff/Buff0004.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t>res://prefab/prop/buff/Buff0004.tscn</t>
+  </si>
+  <si>
+    <t>prop0005</t>
+  </si>
+  <si>
+    <t>杀伤弹</t>
+  </si>
+  <si>
+    <t>提高子弹伤害</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0005.tscn</t>
+  </si>
+  <si>
+    <t>prop0006</t>
+  </si>
+  <si>
+    <t>加强无敌时间</t>
+  </si>
+  <si>
+    <t>受伤后延长无敌时间</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0006.tscn</t>
+  </si>
+  <si>
+    <t>prop0007</t>
+  </si>
+  <si>
+    <t>抵消伤害的护盾</t>
+  </si>
+  <si>
+    <t>受伤时有一定概率抵消伤害</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0007.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1232,12 +1268,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1245,7 +1281,7 @@
     <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6018518518519" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="35.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="78.1111111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
@@ -1588,60 +1624,111 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1">
         <v>99</v>
       </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1">
         <v>99</v>
       </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>76</v>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -256,6 +256,42 @@
   </si>
   <si>
     <t>res://prefab/prop/buff/Buff0007.tscn</t>
+  </si>
+  <si>
+    <t>prop0008</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t>提高武器精准度</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0008.tscn</t>
+  </si>
+  <si>
+    <t>prop0009</t>
+  </si>
+  <si>
+    <t>高速子弹</t>
+  </si>
+  <si>
+    <t>提高子弹速度和射程</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0009.tscn</t>
+  </si>
+  <si>
+    <t>prop0010</t>
+  </si>
+  <si>
+    <t>分裂子弹</t>
+  </si>
+  <si>
+    <t>子弹数量翻倍, 但是精准度和伤害降低</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/buff/Buff0010.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1268,12 +1304,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1675,60 +1711,111 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="33" customFormat="1" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="1">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="1">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1">
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -180,7 +180,7 @@
     <t>鞋子</t>
   </si>
   <si>
-    <t>增加移速的buff</t>
+    <t>提高移动速度</t>
   </si>
   <si>
     <t>res://prefab/prop/buff/Buff0001.tscn</t>
@@ -192,7 +192,7 @@
     <t>心之容器</t>
   </si>
   <si>
-    <t>增加血量上限</t>
+    <t>提高血量上限</t>
   </si>
   <si>
     <t>res://prefab/prop/buff/Buff0002.tscn</t>
@@ -204,7 +204,7 @@
     <t>护盾</t>
   </si>
   <si>
-    <t>增加护盾上限</t>
+    <t>可以抵挡子弹，随时间推移自动恢复</t>
   </si>
   <si>
     <t>res://prefab/prop/buff/Buff0003.tscn</t>
@@ -213,7 +213,7 @@
     <t>prop0004</t>
   </si>
   <si>
-    <t>护盾快速恢复</t>
+    <t>护盾计时器</t>
   </si>
   <si>
     <t>提高护盾恢复速度</t>
@@ -237,7 +237,7 @@
     <t>prop0006</t>
   </si>
   <si>
-    <t>加强无敌时间</t>
+    <t>红宝石戒指</t>
   </si>
   <si>
     <t>受伤后延长无敌时间</t>
@@ -249,7 +249,7 @@
     <t>prop0007</t>
   </si>
   <si>
-    <t>抵消伤害的护盾</t>
+    <t>备用护盾</t>
   </si>
   <si>
     <t>受伤时有一定概率抵消伤害</t>
@@ -1309,7 +1309,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35:D35"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Id</t>
   </si>
@@ -183,7 +183,7 @@
     <t>提高移动速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0001.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0001.tscn</t>
   </si>
   <si>
     <t>prop0002</t>
@@ -195,7 +195,7 @@
     <t>提高血量上限</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0002.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0002.tscn</t>
   </si>
   <si>
     <t>prop0003</t>
@@ -207,7 +207,7 @@
     <t>可以抵挡子弹，随时间推移自动恢复</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0003.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0003.tscn</t>
   </si>
   <si>
     <t>prop0004</t>
@@ -219,7 +219,7 @@
     <t>提高护盾恢复速度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0004.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0004.tscn</t>
   </si>
   <si>
     <t>prop0005</t>
@@ -231,7 +231,7 @@
     <t>提高子弹伤害</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0005.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0005.tscn</t>
   </si>
   <si>
     <t>prop0006</t>
@@ -243,7 +243,7 @@
     <t>受伤后延长无敌时间</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0006.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0006.tscn</t>
   </si>
   <si>
     <t>prop0007</t>
@@ -255,7 +255,7 @@
     <t>受伤时有一定概率抵消伤害</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0007.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0007.tscn</t>
   </si>
   <si>
     <t>prop0008</t>
@@ -267,7 +267,7 @@
     <t>提高武器精准度</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0008.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0008.tscn</t>
   </si>
   <si>
     <t>prop0009</t>
@@ -279,7 +279,7 @@
     <t>提高子弹速度和射程</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0009.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0009.tscn</t>
   </si>
   <si>
     <t>prop0010</t>
@@ -291,7 +291,19 @@
     <t>子弹数量翻倍, 但是精准度和伤害降低</t>
   </si>
   <si>
-    <t>res://prefab/prop/buff/Buff0010.tscn</t>
+    <t>res://prefab/prop/buff/BuffProp0010.tscn</t>
+  </si>
+  <si>
+    <t>prop5000</t>
+  </si>
+  <si>
+    <t>医药箱</t>
+  </si>
+  <si>
+    <t>使用后回复一颗红心</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/active/ActiveProp5000.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1304,12 +1316,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1762,60 +1774,77 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" customFormat="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="1">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B39" s="1">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="1">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1">
         <v>99</v>
       </c>
       <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1">
         <v>99</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>100</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="15600"/>
+    <workbookView windowWidth="24930" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>res://prefab/prop/active/ActiveProp5000.tscn</t>
+  </si>
+  <si>
+    <t>prop5001</t>
+  </si>
+  <si>
+    <t>弹药箱</t>
+  </si>
+  <si>
+    <t>使用后补充当前武器备用弹药</t>
+  </si>
+  <si>
+    <t>res://prefab/prop/active/ActiveProp5001.tscn</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -1321,17 +1333,17 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6018518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="78.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5545454545455" customWidth="1"/>
+    <col min="5" max="5" width="78.1090909090909" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1090909090909" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,60 +1803,77 @@
         <v>92</v>
       </c>
     </row>
+    <row r="39" customFormat="1" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1">
         <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1">
         <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1">
         <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1892,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1880,7 +1909,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -135,6 +135,15 @@
     <t>res://prefab/weapon/Weapon0006.tscn</t>
   </si>
   <si>
+    <t>weapon0007</t>
+  </si>
+  <si>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
+    <t>res://prefab/weapon/Weapon0007.tscn</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -145,6 +154,12 @@
   </si>
   <si>
     <t>res://prefab/bullet/Bullet0002.tscn</t>
+  </si>
+  <si>
+    <t>bullet0003</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/Bullet0003.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1328,12 +1343,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1544,336 +1559,377 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="39" customHeight="1"/>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="15" ht="24" customHeight="1" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:7">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="39" customHeight="1"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21"/>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="C23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:5">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D37" t="s">
         <v>88</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:5">
-      <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="1">
+    </row>
+    <row r="41" customFormat="1" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1">
         <v>9</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D41" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="1">
+    </row>
+    <row r="42" customFormat="1" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+      <c r="D42" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="1">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="1">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="1" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="B46" s="1">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="1">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12270"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="140">
   <si>
     <t>Id</t>
   </si>
@@ -27,10 +27,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Remark</t>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
   <si>
     <t>Prefab</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ShowInMapEditor</t>
   </si>
   <si>
     <t>物体唯一id
@@ -51,18 +60,33 @@
     <t>物体名称</t>
   </si>
   <si>
-    <t>物体备注</t>
+    <t>物体简介
+一句对物体简短的介绍, 比如拾起物体时弹出的描述</t>
+  </si>
+  <si>
+    <t>物体详情
+在图鉴中的描述</t>
   </si>
   <si>
     <t>物体预制场景路径, 场景根节点必须是ActivityObject子类</t>
   </si>
   <si>
+    <t>物体图标
+如果不需要在图鉴或者地图编辑器中显示该物体, 则可以不用设置</t>
+  </si>
+  <si>
+    <t>是否在地图编辑器中显示该物体</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>role0001</t>
   </si>
   <si>
@@ -90,6 +114,9 @@
     <t>res://prefab/weapon/Weapon0001.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0001/Weapon0001.png</t>
+  </si>
+  <si>
     <t>weapon0002</t>
   </si>
   <si>
@@ -99,6 +126,9 @@
     <t>res://prefab/weapon/Weapon0002.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0002/Weapon0002.png</t>
+  </si>
+  <si>
     <t>weapon0003</t>
   </si>
   <si>
@@ -108,6 +138,9 @@
     <t>res://prefab/weapon/Weapon0003.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0003/Weapon0003.png</t>
+  </si>
+  <si>
     <t>weapon0004</t>
   </si>
   <si>
@@ -117,6 +150,9 @@
     <t>res://prefab/weapon/Weapon0004.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/knife1.png</t>
+  </si>
+  <si>
     <t>weapon0005</t>
   </si>
   <si>
@@ -126,6 +162,9 @@
     <t>res://prefab/weapon/Weapon0005.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0005/Weapon0005.png</t>
+  </si>
+  <si>
     <t>weapon0006</t>
   </si>
   <si>
@@ -135,6 +174,9 @@
     <t>res://prefab/weapon/Weapon0006.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0006/Weapon0006.png</t>
+  </si>
+  <si>
     <t>weapon0007</t>
   </si>
   <si>
@@ -144,6 +186,9 @@
     <t>res://prefab/weapon/Weapon0007.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/weapon/weapon0007/Weapon0007.png</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -201,6 +246,9 @@
     <t>res://prefab/prop/buff/BuffProp0001.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
+  </si>
+  <si>
     <t>prop0002</t>
   </si>
   <si>
@@ -213,6 +261,9 @@
     <t>res://prefab/prop/buff/BuffProp0002.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0002.png</t>
+  </si>
+  <si>
     <t>prop0003</t>
   </si>
   <si>
@@ -225,6 +276,9 @@
     <t>res://prefab/prop/buff/BuffProp0003.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0003.png</t>
+  </si>
+  <si>
     <t>prop0004</t>
   </si>
   <si>
@@ -237,6 +291,9 @@
     <t>res://prefab/prop/buff/BuffProp0004.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0004.png</t>
+  </si>
+  <si>
     <t>prop0005</t>
   </si>
   <si>
@@ -249,6 +306,9 @@
     <t>res://prefab/prop/buff/BuffProp0005.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0005.png</t>
+  </si>
+  <si>
     <t>prop0006</t>
   </si>
   <si>
@@ -261,6 +321,9 @@
     <t>res://prefab/prop/buff/BuffProp0006.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0006.png</t>
+  </si>
+  <si>
     <t>prop0007</t>
   </si>
   <si>
@@ -273,6 +336,9 @@
     <t>res://prefab/prop/buff/BuffProp0007.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0007.png</t>
+  </si>
+  <si>
     <t>prop0008</t>
   </si>
   <si>
@@ -285,6 +351,9 @@
     <t>res://prefab/prop/buff/BuffProp0008.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0008.png</t>
+  </si>
+  <si>
     <t>prop0009</t>
   </si>
   <si>
@@ -297,6 +366,9 @@
     <t>res://prefab/prop/buff/BuffProp0009.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0009.png</t>
+  </si>
+  <si>
     <t>prop0010</t>
   </si>
   <si>
@@ -309,6 +381,9 @@
     <t>res://prefab/prop/buff/BuffProp0010.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/buff/BuffProp0010.png</t>
+  </si>
+  <si>
     <t>prop5000</t>
   </si>
   <si>
@@ -321,6 +396,9 @@
     <t>res://prefab/prop/active/ActiveProp5000.tscn</t>
   </si>
   <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5000.png</t>
+  </si>
+  <si>
     <t>prop5001</t>
   </si>
   <si>
@@ -331,6 +409,9 @@
   </si>
   <si>
     <t>res://prefab/prop/active/ActiveProp5001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/active/ActiveProp5001.png</t>
   </si>
   <si>
     <t>other_door_e</t>
@@ -372,7 +453,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -385,34 +466,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,14 +482,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,6 +521,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,7 +586,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,49 +622,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,121 +760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,21 +813,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,6 +845,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,148 +918,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,52 +1079,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1343,26 +1424,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5545454545455" customWidth="1"/>
-    <col min="5" max="5" width="78.1090909090909" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1090909090909" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="4" max="5" width="35.5545454545455" customWidth="1"/>
+    <col min="6" max="6" width="63.3636363636364" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:5">
+    <row r="1" ht="25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,561 +1456,708 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="138" customHeight="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="138" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="3:7">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="3:8">
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:7">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="3:7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="3:8">
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:7">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="3:7">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="28" customHeight="1" spans="3:8">
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:7">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:7">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:7">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:7">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:7">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:7">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:7">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:7">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:8">
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:7">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:8">
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" ht="39" customHeight="1"/>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21"/>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:5">
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:5">
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>138</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>res://prefab/role/Enemy0001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/enemy0001/Enemy0001_Icon.png</t>
   </si>
   <si>
     <t>weapon0001</t>
@@ -1426,10 +1429,10 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1559,7 +1562,9 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1567,7 +1572,12 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="3:8">
       <c r="C8" s="3"/>
@@ -1578,21 +1588,21 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>1</v>
@@ -1600,21 +1610,21 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="b">
         <v>1</v>
@@ -1622,21 +1632,21 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="b">
         <v>1</v>
@@ -1644,21 +1654,21 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="b">
         <v>1</v>
@@ -1666,21 +1676,21 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="b">
         <v>1</v>
@@ -1688,21 +1698,21 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="b">
         <v>1</v>
@@ -1710,21 +1720,21 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="b">
         <v>1</v>
@@ -1747,105 +1757,105 @@
     <row r="18" ht="39" customHeight="1"/>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -1853,22 +1863,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -1876,22 +1886,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>1</v>
@@ -1899,22 +1909,22 @@
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="2" t="b">
         <v>1</v>
@@ -1922,22 +1932,22 @@
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2" t="b">
         <v>1</v>
@@ -1945,22 +1955,22 @@
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2" t="b">
         <v>1</v>
@@ -1968,22 +1978,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H35" s="2" t="b">
         <v>1</v>
@@ -1991,22 +2001,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -2014,22 +2024,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H37" s="2" t="b">
         <v>1</v>
@@ -2037,22 +2047,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H38" s="2" t="b">
         <v>1</v>
@@ -2060,22 +2070,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H41" s="2" t="b">
         <v>1</v>
@@ -2083,22 +2093,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H42" s="2" t="b">
         <v>1</v>
@@ -2106,58 +2116,58 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>res://prefab/role/Role0001.tscn</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/role/role0001/Role0001_Icon.png</t>
   </si>
   <si>
     <t>enemy0001</t>
@@ -1432,7 +1435,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1538,13 +1541,18 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1557,23 +1565,23 @@
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
@@ -1588,21 +1596,21 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>1</v>
@@ -1610,21 +1618,21 @@
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="b">
         <v>1</v>
@@ -1632,21 +1640,21 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="b">
         <v>1</v>
@@ -1654,21 +1662,21 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="b">
         <v>1</v>
@@ -1676,21 +1684,21 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="b">
         <v>1</v>
@@ -1698,21 +1706,21 @@
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="b">
         <v>1</v>
@@ -1720,21 +1728,21 @@
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2" t="b">
         <v>1</v>
@@ -1757,105 +1765,105 @@
     <row r="18" ht="39" customHeight="1"/>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -1863,22 +1871,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -1886,22 +1894,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>1</v>
@@ -1909,22 +1917,22 @@
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" s="2" t="b">
         <v>1</v>
@@ -1932,22 +1940,22 @@
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H33" s="2" t="b">
         <v>1</v>
@@ -1955,22 +1963,22 @@
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H34" s="2" t="b">
         <v>1</v>
@@ -1978,22 +1986,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35" s="2" t="b">
         <v>1</v>
@@ -2001,22 +2009,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -2024,22 +2032,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H37" s="2" t="b">
         <v>1</v>
@@ -2047,22 +2055,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H38" s="2" t="b">
         <v>1</v>
@@ -2070,22 +2078,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="2" t="b">
         <v>1</v>
@@ -2093,22 +2101,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H42" s="2" t="b">
         <v>1</v>
@@ -2116,58 +2124,58 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -108,7 +108,7 @@
     <t>res://prefab/role/Enemy0001.tscn</t>
   </si>
   <si>
-    <t>res://resource/sprite/role/enemy0001/Enemy0001_Icon.png</t>
+    <t>res://resource/sprite/role/enemy0001/enemy0001_Icon.png</t>
   </si>
   <si>
     <t>weapon0001</t>
@@ -1435,7 +1435,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -237,7 +237,7 @@
     <t>敌人死亡碎片</t>
   </si>
   <si>
-    <t>res://prefab/effect/activityObject/Effect0001.tscn</t>
+    <t>res://prefab/effect/enemy/Effect0001.tscn</t>
   </si>
   <si>
     <t>prop0001</t>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>提高移动速度</t>
-  </si>
-  <si>
-    <t>res://prefab/prop/buff/BuffProp0001.tscn</t>
   </si>
   <si>
     <t>res://resource/sprite/prop/buff/BuffProp0001.png</t>
@@ -1432,10 +1429,10 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1860,10 +1857,10 @@
         <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
         <v>73</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
       </c>
       <c r="H29" s="2" t="b">
         <v>1</v>
@@ -1871,22 +1868,22 @@
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" t="s">
         <v>78</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>1</v>
@@ -1894,22 +1891,22 @@
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" t="s">
         <v>83</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>1</v>
@@ -1917,22 +1914,22 @@
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
         <v>86</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" t="s">
         <v>88</v>
-      </c>
-      <c r="G32" t="s">
-        <v>89</v>
       </c>
       <c r="H32" s="2" t="b">
         <v>1</v>
@@ -1940,22 +1937,22 @@
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" t="s">
         <v>93</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
       </c>
       <c r="H33" s="2" t="b">
         <v>1</v>
@@ -1963,22 +1960,22 @@
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" t="s">
         <v>98</v>
-      </c>
-      <c r="G34" t="s">
-        <v>99</v>
       </c>
       <c r="H34" s="2" t="b">
         <v>1</v>
@@ -1986,22 +1983,22 @@
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" t="s">
         <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>104</v>
       </c>
       <c r="H35" s="2" t="b">
         <v>1</v>
@@ -2009,22 +2006,22 @@
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
         <v>106</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
         <v>108</v>
-      </c>
-      <c r="G36" t="s">
-        <v>109</v>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -2032,22 +2029,22 @@
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1">
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" t="s">
         <v>113</v>
-      </c>
-      <c r="G37" t="s">
-        <v>114</v>
       </c>
       <c r="H37" s="2" t="b">
         <v>1</v>
@@ -2055,22 +2052,22 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" t="s">
         <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
       </c>
       <c r="H38" s="2" t="b">
         <v>1</v>
@@ -2078,22 +2075,22 @@
     </row>
     <row r="41" customFormat="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" t="s">
         <v>123</v>
-      </c>
-      <c r="G41" t="s">
-        <v>124</v>
       </c>
       <c r="H41" s="2" t="b">
         <v>1</v>
@@ -2101,22 +2098,22 @@
     </row>
     <row r="42" customFormat="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
         <v>126</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" t="s">
         <v>128</v>
-      </c>
-      <c r="G42" t="s">
-        <v>129</v>
       </c>
       <c r="H42" s="2" t="b">
         <v>1</v>
@@ -2124,58 +2121,58 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1">
         <v>99</v>
       </c>
       <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1">
         <v>99</v>
       </c>
       <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1">
         <v>99</v>
       </c>
       <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1">
         <v>99</v>
       </c>
       <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/ActivityObject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,19 +198,19 @@
     <t>bullet0001</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0001.tscn</t>
+    <t>res://prefab/ammo/Bullet0001.tscn</t>
   </si>
   <si>
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0002.tscn</t>
+    <t>res://prefab/ammo/Bullet0002.tscn</t>
   </si>
   <si>
     <t>bullet0003</t>
   </si>
   <si>
-    <t>res://prefab/bullet/Bullet0003.tscn</t>
+    <t>res://prefab/ammo/Bullet0003.tscn</t>
   </si>
   <si>
     <t>shell0001</t>
@@ -1430,19 +1430,19 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="63.3636363636364" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="31.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="63.3666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.9083333333333" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,7 +2191,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2208,7 +2208,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
